--- a/tex/recherche/Technologierecherche Morph PREN.xlsx
+++ b/tex/recherche/Technologierecherche Morph PREN.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>Morphologischer Kasten</t>
   </si>
@@ -123,6 +123,42 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>Drehräder (Reibung)</t>
+  </si>
+  <si>
+    <t>Drehräder (Formschlüssig)</t>
+  </si>
+  <si>
+    <t>Katapult</t>
+  </si>
+  <si>
+    <t>Ausfahrbarer Zylinder</t>
+  </si>
+  <si>
+    <t>Fallbeschleunigung</t>
+  </si>
+  <si>
+    <t>Magazin</t>
+  </si>
+  <si>
+    <t>Korb</t>
+  </si>
+  <si>
+    <t>Akkustisches Signal</t>
+  </si>
+  <si>
+    <t>Lichtsignal</t>
+  </si>
+  <si>
+    <t>Netz</t>
+  </si>
+  <si>
+    <t>Rohr</t>
+  </si>
+  <si>
+    <t>Feder</t>
   </si>
 </sst>
 </file>
@@ -467,7 +503,7 @@
   <dimension ref="A2:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,6 +571,18 @@
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -552,6 +600,12 @@
       <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -609,6 +663,24 @@
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -616,6 +688,21 @@
       </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
